--- a/extra-files/headers.xlsx
+++ b/extra-files/headers.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pub\down\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6384B088-15AD-4850-9BCB-671C119039EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="10480"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -291,19 +297,29 @@
   </si>
   <si>
     <t>xiaomi_miwifi-nano</t>
+  </si>
+  <si>
+    <t>qihoo-360t7-108m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qihoo_360t7_108m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cudy-tr3000-512m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cudy_tr3000-v1-512m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,158 +341,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,194 +360,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -819,343 +504,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1477,28 +876,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="26.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="9.50833333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.5083333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.8416666666667" customWidth="1"/>
-    <col min="5" max="5" width="37.675" customWidth="1"/>
+    <col min="1" max="1" width="26.8125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.8125" customWidth="1"/>
+    <col min="5" max="5" width="37.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1566,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1583,7 +982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1600,7 +999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1634,7 +1033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +1050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1668,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="22.5" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1685,7 +1084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="22.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -1702,7 +1101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="22.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1719,7 +1118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="22.5" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1736,7 +1135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="22.5" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
@@ -1753,7 +1152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="22.5" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -1770,7 +1169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="22.5" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -1787,7 +1186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="22.5" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
@@ -1804,7 +1203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="22.5" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>51</v>
       </c>
@@ -1821,7 +1220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="22.5" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -1838,7 +1237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="22.5" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
@@ -1855,7 +1254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="22.5" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
@@ -1872,7 +1271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="22.5" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
@@ -1889,7 +1288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="22.5" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
@@ -1906,7 +1305,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" ht="22.5" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
@@ -1923,7 +1322,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" ht="22.5" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
@@ -1940,7 +1339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" ht="22.5" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
@@ -1957,7 +1356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" ht="22.5" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>69</v>
       </c>
@@ -1974,7 +1373,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" ht="22.5" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -1991,7 +1390,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="22.5" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
@@ -2008,7 +1407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" ht="22.5" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" ht="22.5" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -2025,7 +1424,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" ht="22.5" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" ht="22.5" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -2042,7 +1441,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" ht="22.5" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" ht="22.5" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -2059,7 +1458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" ht="22.5" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" ht="22.5" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
@@ -2076,7 +1475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" ht="22.5" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -2093,7 +1492,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" ht="22.5" customHeight="1" spans="1:5">
+    <row r="36" spans="1:5" ht="22.5" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>86</v>
       </c>
@@ -2110,13 +1509,47 @@
         <v>87</v>
       </c>
     </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:E36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
     <sortCondition ref="C2:C36"/>
     <sortCondition ref="D2:D36"/>
     <sortCondition ref="E2:E36"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/extra-files/headers.xlsx
+++ b/extra-files/headers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pub\down\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6384B088-15AD-4850-9BCB-671C119039EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69A3B52-526B-41E0-85CB-58E565608808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>cudy_tr3000-v1-512m</t>
+    <t>cudy_tr3000-v1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
